--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBatch.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107F51F7-A846-418A-B7F5-8AD7C3BD1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62237D50-72BA-4DAB-9BFB-186C5B1D6369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="0" windowWidth="17484" windowHeight="12288" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>建檔日期時間</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
   <si>
     <t>Seq</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -604,9 +604,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -644,9 +644,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,26 +679,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,26 +714,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -926,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -943,14 +909,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -960,10 +926,10 @@
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -971,14 +937,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -986,7 +952,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="13"/>
@@ -997,11 +963,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="9"/>
@@ -1010,7 +976,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="13"/>
@@ -1021,7 +987,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="13"/>
@@ -1032,7 +998,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -1058,20 +1024,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="16">
         <v>10</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1079,20 +1045,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="16">
         <v>3</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1100,20 +1066,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="16">
         <v>7</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1121,20 +1087,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="16">
         <v>2</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1142,20 +1108,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="16">
         <v>8</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1163,20 +1129,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1184,20 +1150,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1205,20 +1171,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="16">
         <v>7</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1226,20 +1192,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1247,18 +1213,18 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1266,10 +1232,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>3</v>
@@ -1279,7 +1245,7 @@
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1287,13 +1253,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1307,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>3</v>
@@ -1797,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -1823,13 +1789,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
